--- a/src/main/resources/test-data-xls/iot-subscription-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-subscription-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88869BE2-BF90-4422-BC00-1FA6B1816E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585B383-A5C3-435E-A69C-67A67FEBDCB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registerSubscriptions" sheetId="8" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>subSentence</t>
   </si>
   <si>
-    <t>subscription {SensorData(cond:"{Siid:{_in:[34131]}}") {Siid updateTime value}}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -67,15 +64,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>subscription {SensorData (cond:\"{Siid:{_in:[34131]}}\") {Siid updateTime value}}</t>
-  </si>
-  <si>
-    <t>subscription {SensorData_ERROR (cond:"{Siid:{_in:[34131]}}") {Siid updateTime value}}</t>
-  </si>
-  <si>
-    <t>subscription {SensorData (cond:"{Siid:{_in:[34131]}}") {Siid updateTime value}</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>RegisterSubMgmt</t>
   </si>
   <si>
-    <t>subscription {SensorData (cond:"{Siid:{_in:[34131]}}") {Siid_error updateTime value}}</t>
-  </si>
-  <si>
     <t>good request</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>good request, clientId contains special characters</t>
   </si>
   <si>
-    <t>subscription { SensorData (cond: "{Siid:{_in:[34155,34159,34155]}}") {Siid updateTime value } }</t>
-  </si>
-  <si>
     <t>good request, single device subscription</t>
   </si>
   <si>
@@ -152,48 +134,6 @@
   </si>
   <si>
     <t>bad request, both clientid and id are empty</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-1</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-2</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-3</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-4</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-5</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-6</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-7</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-8</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Test-9</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Tes-10</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Tes-11</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Tes-12</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Tes-13</t>
-  </si>
-  <si>
-    <t>iEMS-sub-mgmt-Tes-14</t>
   </si>
   <si>
     <t>DelSubMgmt</t>
@@ -206,6 +146,66 @@
   <si>
     <t>DelSubMgmtNull</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-1</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-2</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-3</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-4</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-5</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-6</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-7</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-8</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Test-9</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Tes-10</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Tes-11</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Tes-12</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Tes-13</t>
+  </si>
+  <si>
+    <t>iot-sub-mgmt-Tes-14</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device(cond:"{ID:{_in:[34131]}}") {ID operator supplier}}</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device(cond:"{ID:{_in:[34155,34159,34155]}}") {ID operator supplier}}</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device (cond:\"{ID:{_in:[34131]}}\") {ID operator supplier}}</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device_ERROR (cond:"{ID:{_in:[34131]}}") {ID operator supplier}}</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device (cond:"{ID:{_in:[34131]}}") {ID operator supplier}</t>
+  </si>
+  <si>
+    <t>subscription {Mysql_Device (cond:"{ID:{_in:[34131]}}") {ID_error operator supplier}}</t>
   </si>
 </sst>
 </file>
@@ -604,21 +604,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C42AED7-09F1-48C2-896C-1C950898C255}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
-    <col min="4" max="4" width="69.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -644,24 +647,24 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -673,24 +676,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -702,24 +705,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -731,24 +734,24 @@
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
@@ -760,24 +763,24 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -789,21 +792,21 @@
         <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4">
@@ -813,24 +816,24 @@
         <v>107001</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="4">
@@ -840,24 +843,24 @@
         <v>107001</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="4">
@@ -867,24 +870,24 @@
         <v>107001</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4">
@@ -894,10 +897,10 @@
         <v>107001</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -911,23 +914,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C864B5-904B-4803-87FD-A0148A25AFB7}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="25.1796875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" style="3"/>
-    <col min="9" max="9" width="29.36328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -941,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -956,22 +962,22 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
@@ -981,25 +987,25 @@
         <v>107002</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -1009,21 +1015,21 @@
         <v>107002</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5"/>
@@ -1035,26 +1041,26 @@
         <v>107003</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -1067,20 +1073,20 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -1089,10 +1095,10 @@
         <v>107003</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iot-subscription-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iot-subscription-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585B383-A5C3-435E-A69C-67A67FEBDCB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43A908-DD09-4F43-A266-53F7AFF4439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registerSubscriptions" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>description</t>
   </si>
@@ -55,9 +55,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Illegal Subscription sentence</t>
-  </si>
-  <si>
     <t>rspData</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Subscription    not exists!</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>good request, submit same subscription with different clientId</t>
-  </si>
-  <si>
-    <t>good request, clientId contains special characters</t>
   </si>
   <si>
     <t>good request, single device subscription</t>
@@ -206,6 +197,18 @@
   </si>
   <si>
     <t>subscription {Mysql_Device (cond:"{ID:{_in:[34131]}}") {ID_error operator supplier}}</t>
+  </si>
+  <si>
+    <t>bad request, clientId contains special characters</t>
+  </si>
+  <si>
+    <t>register.clientId: must match</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input</t>
+  </si>
+  <si>
+    <t>unRegister.clientId: must match</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C42AED7-09F1-48C2-896C-1C950898C255}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -647,24 +650,24 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -676,24 +679,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -705,24 +708,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>200</v>
@@ -734,53 +737,53 @@
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4">
         <v>200</v>
       </c>
       <c r="G5" s="4">
-        <v>100000</v>
+        <v>101400</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -792,115 +795,115 @@
         <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4">
         <v>200</v>
       </c>
       <c r="G7" s="5">
-        <v>107001</v>
+        <v>101301</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="4">
         <v>200</v>
       </c>
       <c r="G8" s="5">
-        <v>107001</v>
+        <v>101301</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="4">
         <v>200</v>
       </c>
       <c r="G9" s="5">
-        <v>107001</v>
+        <v>101301</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="4">
         <v>200</v>
       </c>
       <c r="G10" s="5">
-        <v>107001</v>
+        <v>101301</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C864B5-904B-4803-87FD-A0148A25AFB7}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -947,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -962,50 +965,50 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
         <v>200</v>
       </c>
       <c r="H2" s="5">
-        <v>107002</v>
+        <v>101400</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -1015,21 +1018,21 @@
         <v>107002</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5"/>
@@ -1041,26 +1044,26 @@
         <v>107003</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5">
         <v>200</v>
@@ -1075,18 +1078,18 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5">
         <v>200</v>
@@ -1095,10 +1098,10 @@
         <v>107003</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
